--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2630363.679737701</v>
+        <v>2684875.324625461</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4939118.151513788</v>
+        <v>5005135.498439557</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.3178942517202</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,7 +665,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>415.0271874967712</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647443</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>100.1762195433205</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>163.293878347428</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -899,16 +899,16 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>184.5077471891659</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>292.5465975499322</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194613</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>141.3076780976983</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>254.6050071342459</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>144.5983158026853</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,10 +1145,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>286.2721000371766</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>142.0902352657462</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932871</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>13.39436074607099</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225831</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313558</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800132</v>
       </c>
       <c r="T14" t="n">
-        <v>13.39436074607008</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,10 +1670,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>67.37282263167519</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791302197</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2002,25 +2002,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>116.0434079398614</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170442</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2144,10 +2144,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="21">
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170444</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225757</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,22 +2479,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>137.2258786304576</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580663</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553075</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712954</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892235</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600895</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336993</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341608</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210846</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.21195386449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413507</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279485001</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758689</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024382</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>72.40241347252422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353369</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.567055447579</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570404</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580663</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553075</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712954</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892235</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600984</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336993</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341608</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210846</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.21195386449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413507</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279485001</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758689</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024382</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929909</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>158.1741104148712</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.567055447579</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570404</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580663</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553075</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712954</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892235</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600895</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341608</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210846</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.21195386449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>328.8914768082957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279485001</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758689</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024382</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445368</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>22.41004277033394</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929909</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.567055447579</v>
+        <v>41.94061297377375</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570404</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580663</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553075</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712954</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892235</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600895</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>181.3182940011067</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210846</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.21195386449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413507</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279485001</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758689</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024382</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.40241347252534</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353369</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.567055447579</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570404</v>
+        <v>110.9855059742079</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146213</v>
+        <v>542.9615250231906</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>508.8594562470179</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329724</v>
+        <v>476.9900754618665</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199648</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465107</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375519</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375519</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375519</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375519</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375519</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382454</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.029365327357</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080414</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080414</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080414</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.56648001424</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465678</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449883</v>
+        <v>569.4664111276369</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446417</v>
+        <v>565.2206914676943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135928975</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295398</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760931</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030468</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192084</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.6793207853958</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206588</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731807</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986074</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.727992528797</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859398</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.212801859367</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.095283921366</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>942.77252965456</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934399</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726607</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.5714734656693</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>301.0097619488942</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>135.1317691504169</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160827</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160827</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160827</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160827</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662981</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374337</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053948</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053948</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053948</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.160939331176</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1580.667833301518</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950844</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537136</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705482</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.3900921846564</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874813</v>
+        <v>1783.901035373299</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1749.798966597126</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615724</v>
+        <v>1313.88918177157</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485648</v>
+        <v>880.1144369298654</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446827</v>
+        <v>452.2470073390732</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446827</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446827</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465107</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375519</v>
+        <v>674.5331706342561</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375519</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375519</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375519</v>
+        <v>1298.633954679035</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375519</v>
+        <v>1922.734738723814</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382454</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.029365327357</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080414</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264251</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137289</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>1134.242026454306</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="V5" t="n">
-        <v>771.6250763881326</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="W5" t="n">
-        <v>366.7696217991659</v>
+        <v>2520.804278925292</v>
       </c>
       <c r="X5" t="n">
-        <v>180.3981599919276</v>
+        <v>2101.661815504603</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.152440331985</v>
+        <v>1806.160201817802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135928975</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295398</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760931</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030468</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192084</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539225</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206588</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731807</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041172</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041172</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041172</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041172</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041172</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986074</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080414</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.727992528797</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859398</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.212801859367</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.095283921366</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.77252965456</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934399</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726607</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.6786969831217</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160827</v>
+        <v>868.2688864592586</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160827</v>
+        <v>702.3908936607813</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160827</v>
+        <v>532.6328899115186</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160827</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160827</v>
+        <v>190.3345608991026</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160827</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648276</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097299</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854632</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080414</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080414</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080414</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080414</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080414</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658869</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911974</v>
+        <v>2264.442554590778</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824048</v>
+        <v>1977.487046461209</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703686964</v>
+        <v>1705.4606420475</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021088</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.4973157021088</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1294.102365436318</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1294.102365436318</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1697.183430080417</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1408.019692669128</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1003.164238080161</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.765608785789</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.765608785789</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1532.240118618369</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.552518830016</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.410046013439</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.500261187884</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>1214.725516346179</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>786.8580867553865</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.4602553786503</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.33010082186694</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747848</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2292.362648977993</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O11" t="n">
-        <v>3272.542315548299</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>4100.852190381695</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>4647.35097634029</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093346</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4816.505041093346</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>4802.975383774083</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U11" t="n">
-        <v>4543.753081091099</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.136131024926</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.280676435959</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.13821301527</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2948.852089314923</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963553</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>306.834681123309</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394706</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>946.8261378987982</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>774.2644263820231</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>608.3864335835458</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>438.6284298342831</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>261.9213757960393</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576926</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256536</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506567</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889993</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860335</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2694.750541681982</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2448.871095260437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.438094513543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.482586383973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.456181970265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.064427303677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.644756617785</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.552518830016</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.41004601344</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.500261187884</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.725516346179</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>786.8580867553868</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
-        <v>385.4602553786507</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.33010082186694</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.5847882747848</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2292.362648977993</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3272.542315548299</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4100.852190381695</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4647.35097634029</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093346</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4816.505041093346</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4802.975383774084</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.7530810911</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.136131024927</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.28067643596</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.138213015271</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.852089314924</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963553</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>306.834681123309</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394706</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.8261378987982</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C16" t="n">
-        <v>774.2644263820231</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835458</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E16" t="n">
-        <v>438.6284298342831</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960392</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186694</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186694</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.750541681981</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.871095260437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.438094513542</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.482586383973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.456181970264</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.064427303677</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.644756617785</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.07304516795</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771581</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004221</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436384</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,37 +5525,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937635</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>790.3368563937635</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>790.3368563937635</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5674,7 +5674,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127507</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5756,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987178</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5829,7 +5829,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5908,7 +5908,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K22" t="n">
         <v>463.598980006605</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6212,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
         <v>614.3171730324584</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,22 +6710,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423624</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.07928799393</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827327</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785921</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538978</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722815</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
         <v>143.9964924545671</v>
@@ -6774,10 +6774,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312371</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883922</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731398</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238771</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856333</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
         <v>463.598980006605</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995631</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625511</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246412</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851165</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068293</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765501</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.7165211191412</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195813</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.128957766119</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599515</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.93761855811</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311167</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941461</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260957</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024431</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404714</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262203</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287971</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034082</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.6335786575162</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941584</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407117</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676654</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.582575583827</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500109</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266809</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928932</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050693</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985985</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719179</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580586</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372793</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1011.257859493217</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>841.4629004228992</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>678.3516600708789</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>511.3604087680732</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>337.4201071762864</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>174.595584648571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036857</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475937</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883273</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642013</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.31099587243</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170983</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214098</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151203</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2739.814996151203</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2739.814996151203</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2496.702302176115</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2221.036053875677</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.847298192564</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1667.587646225313</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.962644005182</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1200.309725765748</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995631</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625511</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.564984246412</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851164</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068292</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>387.82523577655</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662233</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.7165211191412</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2548.949291195813</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2548.949291195813</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3529.128957766119</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599515</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.93761855811</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311167</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941461</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260956</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.45053702443</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404713</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262204</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287971</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034082</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.6335786575162</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941584</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407117</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676654</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.582575583827</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500109</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266809</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928932</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050693</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985985</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719179</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580586</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372793</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>938.1241085108699</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>768.3291494405516</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>605.2179090885313</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2266577857255</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>264.2863561939387</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036857</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475937</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883273</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642013</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.31099587243</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170983</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214098</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151203</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2739.814996151203</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2583.340379895657</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2423.568551193767</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2147.902302893329</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.713547210217</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1594.453895242965</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1351.828893022835</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1127.1759747834</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2505.152997546718</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2069.777277176598</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.6342447975</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.626252402252</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579166</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276374</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731065</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731065</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702285</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3420.375706451572</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4248.685581284968</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.554710865533</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865533</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495827</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4695.669589495827</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4439.2140392593</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4079.363841639583</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3677.275139497074</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3260.899428522841</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.685815585169</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086035</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452457</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.156089191799</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187527</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349143</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010982</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731065</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777682</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439806</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091458</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883666</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.965197763847</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>922.170238693529</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>759.0589983415086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>592.0677470387029</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>418.127445446916</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>255.3029229192007</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>118.1675010560321</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731065</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.822473454773</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986811</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394147</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.4097591931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.380256423517</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722071</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765185</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.88425670229</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.88425670229</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2577.409640446744</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2577.409640446744</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2301.743392146306</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>2017.554636463194</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1748.294984495942</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X43" t="n">
-        <v>1505.669982275812</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y43" t="n">
-        <v>1281.017064036377</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505.152997546718</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2069.777277176599</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.6342447975</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.626252402252</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579166</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276374</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731065</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731065</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702285</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2440.196039881266</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N44" t="n">
-        <v>2440.196039881266</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O44" t="n">
-        <v>3420.375706451572</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P44" t="n">
-        <v>4248.685581284968</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.554710865533</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865533</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4695.669589495827</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4695.669589495827</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4512.519797575518</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4152.669599955801</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3750.580897813291</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3334.205186839059</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2928.685815585169</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086035</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452457</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.156089191799</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187527</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349143</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2667464010982</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731065</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777682</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439806</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091458</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883666</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>932.1933690619567</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C46" t="n">
-        <v>762.3984099916386</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D46" t="n">
-        <v>599.2871696396182</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E46" t="n">
-        <v>432.2959183368125</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450256</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G46" t="n">
-        <v>95.53109421731065</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731065</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731065</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.822473454773</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986811</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394147</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.4097591931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.380256423517</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722072</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765186</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2660.750505719941</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2417.637811744854</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2141.971563444416</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1857.782807761304</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.523155794052</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.898153573921</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1121.245235334487</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798397</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201035</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888797</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988846</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201035</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798397</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201035</v>
+        <v>604.9339300505462</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201035</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201035</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888797</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201035</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201034</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201035</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>205.1467494379689</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>935.7854229747782</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>935.7854229747782</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525524</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352419</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230966007</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>103.8611230966007</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.201140990469</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q44" t="n">
-        <v>533.201140990469</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.4721941096208</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>204.4721941096217</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>201.9333177378962</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>52.01701577190876</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>37.71410486740373</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>63.36165417201259</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>85.034264811079</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968942</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9098700929909</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445368</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>85.034264811079</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968942</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>82.50745662046563</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336993</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.572700733055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>62.62422204074505</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968942</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353369</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>227.3655273957976</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1274699336993</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>72.57270073305412</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445368</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.034264811079</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968942</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>82.50745662046553</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>420506.9297038598</v>
+        <v>426848.0909154975</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>420506.9297038598</v>
+        <v>427989.8309384602</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416531.663805874</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416531.6638058739</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>436399.148861207</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>436399.148861207</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>417471.0050249365</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417471.0050249366</v>
+        <v>435459.8076421443</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904083</v>
+        <v>536147.3198904084</v>
       </c>
       <c r="D2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="E2" t="n">
-        <v>503956.6505522787</v>
+        <v>526857.5841373521</v>
       </c>
       <c r="F2" t="n">
-        <v>503956.6505522785</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="G2" t="n">
+        <v>526857.5841373523</v>
+      </c>
+      <c r="H2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>526857.5841373523</v>
+      </c>
+      <c r="J2" t="n">
         <v>526857.5841373521</v>
-      </c>
-      <c r="I2" t="n">
-        <v>526857.5841373522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>526857.5841373522</v>
       </c>
       <c r="K2" t="n">
         <v>526857.5841373522</v>
       </c>
       <c r="L2" t="n">
+        <v>526857.5841373521</v>
+      </c>
+      <c r="M2" t="n">
         <v>526857.5841373522</v>
       </c>
-      <c r="M2" t="n">
-        <v>528424.8315567498</v>
-      </c>
       <c r="N2" t="n">
-        <v>528424.8315567501</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="O2" t="n">
-        <v>505523.8979716761</v>
+        <v>526857.5841373522</v>
       </c>
       <c r="P2" t="n">
-        <v>505523.8979716764</v>
+        <v>526857.5841373523</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597096</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501619</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998274</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932546</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.345267868590081e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319039</v>
+        <v>2.20423429776794e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.46534499</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622349</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017876</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558135</v>
+        <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558135</v>
+        <v>146735.164794785</v>
       </c>
       <c r="D4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39335.45940949835</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="F4" t="n">
-        <v>39335.45940949835</v>
+        <v>41122.95192991274</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.9519299128</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991276</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.9519299127</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>43544.40790107884</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>43544.40790107883</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
-        <v>41756.91538066446</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="P4" t="n">
-        <v>41756.91538066446</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722229</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722229</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461886</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461886</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579246</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663671</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663671</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546309</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546309</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>146966.6980376629</v>
       </c>
       <c r="C6" t="n">
-        <v>289157.9986973725</v>
+        <v>250868.1733926046</v>
       </c>
       <c r="D6" t="n">
-        <v>289157.9986973728</v>
+        <v>311023.4525397635</v>
       </c>
       <c r="E6" t="n">
-        <v>158570.1125249069</v>
+        <v>225638.0600412145</v>
       </c>
       <c r="F6" t="n">
-        <v>391410.3145181613</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="G6" t="n">
-        <v>387697.3095784566</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="H6" t="n">
-        <v>408016.3936016469</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="I6" t="n">
-        <v>408016.393601647</v>
+        <v>407993.1692622642</v>
       </c>
       <c r="J6" t="n">
-        <v>297001.9282566569</v>
+        <v>296978.703917274</v>
       </c>
       <c r="K6" t="n">
-        <v>408016.3936016469</v>
+        <v>354947.3146234917</v>
       </c>
       <c r="L6" t="n">
-        <v>408016.3936016471</v>
+        <v>398600.8675356418</v>
       </c>
       <c r="M6" t="n">
-        <v>213499.9798372466</v>
+        <v>255792.9983242767</v>
       </c>
       <c r="N6" t="n">
-        <v>407539.1579390346</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="O6" t="n">
-        <v>390933.0788555486</v>
+        <v>407993.1692622643</v>
       </c>
       <c r="P6" t="n">
-        <v>390933.0788555489</v>
+        <v>407993.1692622644</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201034</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26817,19 +26817,19 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384744</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827792</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827792</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716383</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716383</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.755292872209925e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939331</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532322</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201037</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939331</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962795</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.755292872209925e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939331</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532322</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.7186805283385</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,7 +27385,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>14.40980989651655</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.88420416844959</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>79.64395877249362</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,16 +27619,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>230.4432915973165</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>111.6566649134109</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>29.52841630390901</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27825,10 +27825,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>21.04366360517986</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>286.9523711746145</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>72.71868052833514</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>127.2159051038252</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.181584835737601e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.1778748630731e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,16 +28612,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992418</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798397</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201035</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888797</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988846</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201035</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798397</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201035</v>
+        <v>604.9339300505462</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201035</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201035</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888797</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201035</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184034</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201034</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201035</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>205.1467494379689</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>935.7854229747782</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35568,19 +35568,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>935.7854229747782</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35805,13 +35805,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525524</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36762,10 +36762,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352419</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37087,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230966007</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107308</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180889</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.173308930034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865511</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175929</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>103.8611230966007</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107308</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180889</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.173308930034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865508</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.201140990469</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107308</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>280.272877418089</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.173308930034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175929</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,22 +38023,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q44" t="n">
-        <v>533.201140990469</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107308</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>280.272877418089</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.173308930034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175929</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732871</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
